--- a/9-) Dunyada tekstilde HS2 ihracat ve ithalat kirilimlari.xlsx
+++ b/9-) Dunyada tekstilde HS2 ihracat ve ithalat kirilimlari.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://fintegral365-my.sharepoint.com/personal/oguz_oztekin_fintegral_com_tr/Documents/Masaüstü/Dis-Ticaret-Tekstil/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="1" documentId="11_E067FFECA0E65409579F4E17B55918612F3F2A4F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1ADB9F51-EE06-40CE-9EE7-5FC03AB234B8}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="825" yWindow="1545" windowWidth="14205" windowHeight="13545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HS2 Bazında İhracat" sheetId="1" r:id="rId1"/>
     <sheet name="HS2 Bazında İthalat" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -164,8 +170,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,13 +234,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -272,7 +286,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -306,6 +320,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -340,9 +355,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -515,14 +531,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F201"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +560,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -556,13 +574,13 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>2764752.278</v>
+        <v>2764752.2779999999</v>
       </c>
       <c r="F2">
-        <v>0.2524380472141362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.25243804721413621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -576,13 +594,13 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>14254054.675</v>
+        <v>14254054.675000001</v>
       </c>
       <c r="F3">
         <v>1.301478528717765</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -596,13 +614,13 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>64810586.293</v>
+        <v>64810586.292999998</v>
       </c>
       <c r="F4">
-        <v>5.917585446188096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5.9175854461880961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -619,10 +637,10 @@
         <v>3517713.602</v>
       </c>
       <c r="F5">
-        <v>0.3211878183132779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.32118781831327792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -636,13 +654,13 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>45235788.966</v>
+        <v>45235788.965999998</v>
       </c>
       <c r="F6">
-        <v>4.130292005411926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.1302920054119259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -662,7 +680,7 @@
         <v>3.605305666163821</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -679,10 +697,10 @@
         <v>21669628.555</v>
       </c>
       <c r="F8">
-        <v>1.978563779405586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.9785637794055859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -702,7 +720,7 @@
         <v>1.355944186106665</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -716,13 +734,13 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>11282147.311</v>
+        <v>11282147.311000001</v>
       </c>
       <c r="F10">
         <v>1.030126011011486</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -736,13 +754,13 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>22873144.531</v>
+        <v>22873144.530999999</v>
       </c>
       <c r="F11">
-        <v>2.08845182441779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2.0884518244177901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -756,13 +774,13 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>26755879.04</v>
+        <v>26755879.039999999</v>
       </c>
       <c r="F12">
-        <v>2.442968185649231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2.4429681856492311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -776,13 +794,13 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>202954421.179</v>
+        <v>202954421.17899999</v>
       </c>
       <c r="F13">
-        <v>18.53092523463402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18.530925234634019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -796,13 +814,13 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>199169708.42</v>
+        <v>199169708.41999999</v>
       </c>
       <c r="F14">
-        <v>18.18535883226559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>18.185358832265589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -816,13 +834,13 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>56087006.008</v>
+        <v>56087006.008000001</v>
       </c>
       <c r="F15">
-        <v>5.121071563412976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5.1210715634129764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -842,7 +860,7 @@
         <v>11.08050568573135</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -856,13 +874,13 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>8103089.913</v>
+        <v>8103089.9129999997</v>
       </c>
       <c r="F17">
-        <v>0.7398594840902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.73985948409019997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -876,13 +894,13 @@
         <v>42</v>
       </c>
       <c r="E18">
-        <v>3484085.492</v>
+        <v>3484085.4920000001</v>
       </c>
       <c r="F18">
-        <v>0.3181173752622126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.31811737526221262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -896,13 +914,13 @@
         <v>43</v>
       </c>
       <c r="E19">
-        <v>6127088.422</v>
+        <v>6127088.4220000003</v>
       </c>
       <c r="F19">
-        <v>0.5594389951916059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.55943899519160589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -919,10 +937,10 @@
         <v>208166599.542</v>
       </c>
       <c r="F20">
-        <v>19.00682759238135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>19.006827592381349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -939,10 +957,10 @@
         <v>22271889.649</v>
       </c>
       <c r="F21">
-        <v>2.033553738430917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2.0335537384309168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -956,13 +974,13 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>2768859.181</v>
+        <v>2768859.1809999999</v>
       </c>
       <c r="F22">
         <v>0.2397307501712721</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -982,7 +1000,7 @@
         <v>1.26549867295387</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -996,13 +1014,13 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>70471403.19499999</v>
+        <v>70471403.194999993</v>
       </c>
       <c r="F24">
-        <v>6.101488464811721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>6.1014884648117214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1019,10 +1037,10 @@
         <v>3635822.588</v>
       </c>
       <c r="F25">
-        <v>0.3147933569507506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.31479335695075061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -1036,13 +1054,13 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>48065452.393</v>
+        <v>48065452.392999999</v>
       </c>
       <c r="F26">
-        <v>4.161557596921162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>4.1615575969211616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -1056,13 +1074,13 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>41351824.065</v>
+        <v>41351824.064999998</v>
       </c>
       <c r="F27">
-        <v>3.580284570655785</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3.5802845706557851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -1076,13 +1094,13 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>23314448.834</v>
+        <v>23314448.833999999</v>
       </c>
       <c r="F28">
-        <v>2.018589586338577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>2.0185895863385772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -1099,10 +1117,10 @@
         <v>15899916.08</v>
       </c>
       <c r="F29">
-        <v>1.376631515128928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1.3766315151289279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -1116,13 +1134,13 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>12058539.323</v>
+        <v>12058539.323000001</v>
       </c>
       <c r="F30">
-        <v>1.044041061282334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.0440410612823341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -1136,13 +1154,13 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>23701155.582</v>
+        <v>23701155.581999999</v>
       </c>
       <c r="F31">
-        <v>2.052071064714393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2.0520710647143932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -1156,13 +1174,13 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>29715124.995</v>
+        <v>29715124.995000001</v>
       </c>
       <c r="F32">
-        <v>2.572766883692403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2.5727668836924029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -1176,13 +1194,13 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>213462908.643</v>
+        <v>213462908.64300001</v>
       </c>
       <c r="F33">
-        <v>18.48184392109326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>18.481843921093262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -1199,10 +1217,10 @@
         <v>207679304.697</v>
       </c>
       <c r="F34">
-        <v>17.98109338737802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>17.981093387378021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -1216,13 +1234,13 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>58980554.332</v>
+        <v>58980554.332000002</v>
       </c>
       <c r="F35">
-        <v>5.106598642702095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>5.1065986427020951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -1239,10 +1257,10 @@
         <v>129399949.002</v>
       </c>
       <c r="F36">
-        <v>11.20358415452903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>11.203584154529031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2013</v>
       </c>
@@ -1256,13 +1274,13 @@
         <v>41</v>
       </c>
       <c r="E37">
-        <v>8457172.698000001</v>
+        <v>8457172.6980000008</v>
       </c>
       <c r="F37">
         <v>0.7322309379732741</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -1276,13 +1294,13 @@
         <v>42</v>
       </c>
       <c r="E38">
-        <v>3401526.192</v>
+        <v>3401526.1919999998</v>
       </c>
       <c r="F38">
         <v>0.2945077277064278</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -1296,13 +1314,13 @@
         <v>43</v>
       </c>
       <c r="E39">
-        <v>6393012.402</v>
+        <v>6393012.4019999998</v>
       </c>
       <c r="F39">
-        <v>0.5535137610112019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.55351376101120187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2013</v>
       </c>
@@ -1316,13 +1334,13 @@
         <v>44</v>
       </c>
       <c r="E40">
-        <v>218869893.357</v>
+        <v>218869893.35699999</v>
       </c>
       <c r="F40">
-        <v>18.94998636421443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>18.949986364214428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2013</v>
       </c>
@@ -1336,13 +1354,13 @@
         <v>45</v>
       </c>
       <c r="E41">
-        <v>22743862.043</v>
+        <v>22743862.043000001</v>
       </c>
       <c r="F41">
-        <v>1.969187579771075</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1.9691875797710749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -1356,13 +1374,13 @@
         <v>26</v>
       </c>
       <c r="E42">
-        <v>2679568.751</v>
+        <v>2679568.7510000002</v>
       </c>
       <c r="F42">
         <v>0.218688046146922</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -1379,10 +1397,10 @@
         <v>14783801.705</v>
       </c>
       <c r="F43">
-        <v>1.206552624665231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1.2065526246652309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -1396,13 +1414,13 @@
         <v>28</v>
       </c>
       <c r="E44">
-        <v>65035405.48</v>
+        <v>65035405.479999997</v>
       </c>
       <c r="F44">
-        <v>5.307744296348536</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>5.3077442963485364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -1416,13 +1434,13 @@
         <v>29</v>
       </c>
       <c r="E45">
-        <v>3994865.793</v>
+        <v>3994865.7930000001</v>
       </c>
       <c r="F45">
-        <v>0.3260335808007578</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.32603358080075778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -1436,13 +1454,13 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>51628137.99</v>
+        <v>51628137.990000002</v>
       </c>
       <c r="F46">
-        <v>4.213534964916739</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>4.2135349649167386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -1459,10 +1477,10 @@
         <v>42178873.592</v>
       </c>
       <c r="F47">
-        <v>3.442350733143209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>3.4423507331432091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -1476,13 +1494,13 @@
         <v>32</v>
       </c>
       <c r="E48">
-        <v>24746100.485</v>
+        <v>24746100.484999999</v>
       </c>
       <c r="F48">
         <v>2.019607208361585</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -1496,13 +1514,13 @@
         <v>33</v>
       </c>
       <c r="E49">
-        <v>16785140.99</v>
+        <v>16785140.989999998</v>
       </c>
       <c r="F49">
         <v>1.369888227735834</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -1516,13 +1534,13 @@
         <v>34</v>
       </c>
       <c r="E50">
-        <v>12638591.119</v>
+        <v>12638591.119000001</v>
       </c>
       <c r="F50">
         <v>1.031475231539581</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2014</v>
       </c>
@@ -1542,7 +1560,7 @@
         <v>1.971167769279176</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -1556,13 +1574,13 @@
         <v>36</v>
       </c>
       <c r="E52">
-        <v>32793574.523</v>
+        <v>32793574.522999998</v>
       </c>
       <c r="F52">
         <v>2.67638691335386</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>18.3714163095134</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2014</v>
       </c>
@@ -1596,13 +1614,13 @@
         <v>38</v>
       </c>
       <c r="E54">
-        <v>222972079.018</v>
+        <v>222972079.01800001</v>
       </c>
       <c r="F54">
-        <v>18.19745370876043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>18.197453708760431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -1619,10 +1637,10 @@
         <v>63881506.441</v>
       </c>
       <c r="F55">
-        <v>5.213570961107354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>5.2135709611073544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -1636,13 +1654,13 @@
         <v>40</v>
       </c>
       <c r="E56">
-        <v>140461826.066</v>
+        <v>140461826.06600001</v>
       </c>
       <c r="F56">
-        <v>11.46353206617252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>11.463532066172521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -1656,13 +1674,13 @@
         <v>41</v>
       </c>
       <c r="E57">
-        <v>9495849.045</v>
+        <v>9495849.0449999999</v>
       </c>
       <c r="F57">
-        <v>0.774986151552252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.77498615155225203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -1676,13 +1694,13 @@
         <v>42</v>
       </c>
       <c r="E58">
-        <v>3652124.473</v>
+        <v>3652124.4730000002</v>
       </c>
       <c r="F58">
-        <v>0.2980613820741363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.29806138207413629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2014</v>
       </c>
@@ -1696,13 +1714,13 @@
         <v>43</v>
       </c>
       <c r="E59">
-        <v>6848517.84</v>
+        <v>6848517.8399999999</v>
       </c>
       <c r="F59">
-        <v>0.5589291130794869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.55892911307948689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2014</v>
       </c>
@@ -1716,13 +1734,13 @@
         <v>44</v>
       </c>
       <c r="E60">
-        <v>237641076.237</v>
+        <v>237641076.23699999</v>
       </c>
       <c r="F60">
         <v>19.39463677770037</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2014</v>
       </c>
@@ -1736,13 +1754,13 @@
         <v>45</v>
       </c>
       <c r="E61">
-        <v>23819493.992</v>
+        <v>23819493.991999999</v>
       </c>
       <c r="F61">
-        <v>1.943983933748609</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1.9439839337486089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -1756,13 +1774,13 @@
         <v>26</v>
       </c>
       <c r="E62">
-        <v>2150561.243</v>
+        <v>2150561.2429999998</v>
       </c>
       <c r="F62">
-        <v>0.1869112670755531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.18691126707555311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -1782,7 +1800,7 @@
         <v>1.136635811954428</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -1796,13 +1814,13 @@
         <v>28</v>
       </c>
       <c r="E64">
-        <v>57016866.079</v>
+        <v>57016866.079000004</v>
       </c>
       <c r="F64">
-        <v>4.95549462643367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>4.9554946264336701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -1816,13 +1834,13 @@
         <v>29</v>
       </c>
       <c r="E65">
-        <v>3916675.043</v>
+        <v>3916675.0430000001</v>
       </c>
       <c r="F65">
-        <v>0.340409136170007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.34040913617000701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -1839,10 +1857,10 @@
         <v>45546308.283</v>
       </c>
       <c r="F66">
-        <v>3.958556502168532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>3.9585565021685318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -1856,13 +1874,13 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>38260460.176</v>
+        <v>38260460.175999999</v>
       </c>
       <c r="F67">
         <v>3.325323151650371</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -1876,13 +1894,13 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>23272690.823</v>
+        <v>23272690.822999999</v>
       </c>
       <c r="F68">
         <v>2.022694375314066</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -1902,7 +1920,7 @@
         <v>1.306715922104545</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -1919,10 +1937,10 @@
         <v>11435249.896</v>
       </c>
       <c r="F70">
-        <v>0.9938694163414469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.99386941634144688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -1936,13 +1954,13 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>22105538.664</v>
+        <v>22105538.664000001</v>
       </c>
       <c r="F71">
         <v>1.921253930584236</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -1956,13 +1974,13 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>29571432.409</v>
+        <v>29571432.409000002</v>
       </c>
       <c r="F72">
         <v>2.570135548939243</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -1976,13 +1994,13 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>212865897.687</v>
+        <v>212865897.68700001</v>
       </c>
       <c r="F73">
         <v>18.50076801270254</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -1996,13 +2014,13 @@
         <v>38</v>
       </c>
       <c r="E74">
-        <v>212169182.85</v>
+        <v>212169182.84999999</v>
       </c>
       <c r="F74">
-        <v>18.44021458582485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>18.440214585824851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -2016,13 +2034,13 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>59036234.711</v>
+        <v>59036234.711000003</v>
       </c>
       <c r="F75">
-        <v>5.131003578307656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>5.1310035783076557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -2036,13 +2054,13 @@
         <v>40</v>
       </c>
       <c r="E76">
-        <v>134610224.707</v>
+        <v>134610224.70699999</v>
       </c>
       <c r="F76">
-        <v>11.69934952710867</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>11.699349527108669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -2056,13 +2074,13 @@
         <v>41</v>
       </c>
       <c r="E77">
-        <v>9052343.855</v>
+        <v>9052343.8550000004</v>
       </c>
       <c r="F77">
-        <v>0.7867644157770433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.78676441577704326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -2076,13 +2094,13 @@
         <v>42</v>
       </c>
       <c r="E78">
-        <v>3636325.239</v>
+        <v>3636325.2390000001</v>
       </c>
       <c r="F78">
-        <v>0.3160431539127777</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.31604315391277771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -2096,13 +2114,13 @@
         <v>43</v>
       </c>
       <c r="E79">
-        <v>6643183.114</v>
+        <v>6643183.1140000001</v>
       </c>
       <c r="F79">
-        <v>0.5773775461146718</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.57737754611467185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -2116,13 +2134,13 @@
         <v>44</v>
       </c>
       <c r="E80">
-        <v>226711691.834</v>
+        <v>226711691.83399999</v>
       </c>
       <c r="F80">
-        <v>19.70414454341362</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>19.704144543413619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -2136,13 +2154,13 @@
         <v>45</v>
       </c>
       <c r="E81">
-        <v>24465157.187</v>
+        <v>24465157.186999999</v>
       </c>
       <c r="F81">
-        <v>2.126334948102078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>2.1263349481020781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2016</v>
       </c>
@@ -2156,13 +2174,13 @@
         <v>26</v>
       </c>
       <c r="E82">
-        <v>1970500.705</v>
+        <v>1970500.7050000001</v>
       </c>
       <c r="F82">
-        <v>0.172899830580537</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.17289983058053701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2016</v>
       </c>
@@ -2182,7 +2200,7 @@
         <v>1.14015068142943</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -2196,13 +2214,13 @@
         <v>28</v>
       </c>
       <c r="E84">
-        <v>53174739.148</v>
+        <v>53174739.148000002</v>
       </c>
       <c r="F84">
-        <v>4.665770160104281</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>4.6657701601042811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -2216,13 +2234,13 @@
         <v>29</v>
       </c>
       <c r="E85">
-        <v>3860974.458</v>
+        <v>3860974.4580000001</v>
       </c>
       <c r="F85">
-        <v>0.3387777674832046</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.33877776748320459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -2236,13 +2254,13 @@
         <v>30</v>
       </c>
       <c r="E86">
-        <v>44246474.91</v>
+        <v>44246474.909999996</v>
       </c>
       <c r="F86">
         <v>3.88236756085047</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -2256,13 +2274,13 @@
         <v>31</v>
       </c>
       <c r="E87">
-        <v>37075292.902</v>
+        <v>37075292.902000003</v>
       </c>
       <c r="F87">
-        <v>3.253138578034453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>3.2531385780344531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -2276,13 +2294,13 @@
         <v>32</v>
       </c>
       <c r="E88">
-        <v>23680839.925</v>
+        <v>23680839.925000001</v>
       </c>
       <c r="F88">
-        <v>2.077854222862263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>2.0778542228622632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -2302,7 +2320,7 @@
         <v>1.312342456965977</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -2316,13 +2334,13 @@
         <v>34</v>
       </c>
       <c r="E90">
-        <v>11678378.847</v>
+        <v>11678378.846999999</v>
       </c>
       <c r="F90">
-        <v>1.024708957970978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>1.0247089579709781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -2342,7 +2360,7 @@
         <v>2.041065304656196</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -2356,13 +2374,13 @@
         <v>36</v>
       </c>
       <c r="E92">
-        <v>29798086.87</v>
+        <v>29798086.870000001</v>
       </c>
       <c r="F92">
-        <v>2.614606611595769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2.6146066115957689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -2376,13 +2394,13 @@
         <v>37</v>
       </c>
       <c r="E93">
-        <v>210295746.459</v>
+        <v>210295746.45899999</v>
       </c>
       <c r="F93">
         <v>18.4522131061956</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -2396,13 +2414,13 @@
         <v>38</v>
       </c>
       <c r="E94">
-        <v>209122112.844</v>
+        <v>209122112.84400001</v>
       </c>
       <c r="F94">
-        <v>18.34923366920163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>18.349233669201631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -2416,13 +2434,13 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>59014510.093</v>
+        <v>59014510.093000002</v>
       </c>
       <c r="F95">
-        <v>5.178175664176223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>5.1781756641762229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -2436,13 +2454,13 @@
         <v>40</v>
       </c>
       <c r="E96">
-        <v>133721406.731</v>
+        <v>133721406.73100001</v>
       </c>
       <c r="F96">
-        <v>11.7332658192482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>11.733265819248199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -2456,13 +2474,13 @@
         <v>41</v>
       </c>
       <c r="E97">
-        <v>9269613.687999999</v>
+        <v>9269613.6879999992</v>
       </c>
       <c r="F97">
-        <v>0.8133540029371503</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.81335400293715032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -2476,13 +2494,13 @@
         <v>42</v>
       </c>
       <c r="E98">
-        <v>3436131.769</v>
+        <v>3436131.7689999999</v>
       </c>
       <c r="F98">
-        <v>0.3015003238542363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.30150032385423631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -2496,13 +2514,13 @@
         <v>43</v>
       </c>
       <c r="E99">
-        <v>6153812.715</v>
+        <v>6153812.7149999999</v>
       </c>
       <c r="F99">
-        <v>0.5399608196779886</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.53996081967798859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -2516,13 +2534,13 @@
         <v>44</v>
       </c>
       <c r="E100">
-        <v>228867625.54</v>
+        <v>228867625.53999999</v>
       </c>
       <c r="F100">
-        <v>20.08178610686454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>20.081786106864541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -2536,13 +2554,13 @@
         <v>45</v>
       </c>
       <c r="E101">
-        <v>23099309.523</v>
+        <v>23099309.522999998</v>
       </c>
       <c r="F101">
         <v>2.026828355310883</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2017</v>
       </c>
@@ -2556,13 +2574,13 @@
         <v>26</v>
       </c>
       <c r="E102">
-        <v>1979356.414</v>
+        <v>1979356.4140000001</v>
       </c>
       <c r="F102">
-        <v>0.165943639668846</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.16594363966884601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2017</v>
       </c>
@@ -2579,10 +2597,10 @@
         <v>13349482.003</v>
       </c>
       <c r="F103">
-        <v>1.119182788710016</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1.1191827887100161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2017</v>
       </c>
@@ -2596,13 +2614,13 @@
         <v>28</v>
       </c>
       <c r="E104">
-        <v>56816207.659</v>
+        <v>56816207.659000002</v>
       </c>
       <c r="F104">
-        <v>4.763310045845752</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>4.7633100458457518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2017</v>
       </c>
@@ -2622,7 +2640,7 @@
         <v>0.3223176952382808</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2017</v>
       </c>
@@ -2639,10 +2657,10 @@
         <v>46995319.636</v>
       </c>
       <c r="F106">
-        <v>3.939954589602591</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>3.9399545896025909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2017</v>
       </c>
@@ -2656,13 +2674,13 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>38715002.946</v>
+        <v>38715002.946000002</v>
       </c>
       <c r="F107">
-        <v>3.245756273710357</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>3.2457562737103571</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2017</v>
       </c>
@@ -2676,13 +2694,13 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>24685644.372</v>
+        <v>24685644.372000001</v>
       </c>
       <c r="F108">
-        <v>2.069574557510916</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>2.0695745575109159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2017</v>
       </c>
@@ -2696,13 +2714,13 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>15371375.485</v>
+        <v>15371375.484999999</v>
       </c>
       <c r="F109">
-        <v>1.288692615769285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1.2886926157692851</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2017</v>
       </c>
@@ -2716,13 +2734,13 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>11939763.471</v>
+        <v>11939763.471000001</v>
       </c>
       <c r="F110">
-        <v>1.000995976848298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.0009959768482981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2017</v>
       </c>
@@ -2736,13 +2754,13 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>24754467.527</v>
+        <v>24754467.526999999</v>
       </c>
       <c r="F111">
         <v>2.075344496039123</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2017</v>
       </c>
@@ -2756,13 +2774,13 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>33180585.613</v>
+        <v>33180585.613000002</v>
       </c>
       <c r="F112">
-        <v>2.78176638831705</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>2.7817663883170498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2017</v>
       </c>
@@ -2779,10 +2797,10 @@
         <v>216632581.345</v>
       </c>
       <c r="F113">
-        <v>18.161862494789</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>18.161862494788998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2017</v>
       </c>
@@ -2796,13 +2814,13 @@
         <v>38</v>
       </c>
       <c r="E114">
-        <v>218502795.239</v>
+        <v>218502795.23899999</v>
       </c>
       <c r="F114">
         <v>18.31865593448207</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2017</v>
       </c>
@@ -2816,13 +2834,13 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>61438553.019</v>
+        <v>61438553.019000001</v>
       </c>
       <c r="F115">
-        <v>5.150834398417861</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>5.1508343984178611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2017</v>
       </c>
@@ -2836,13 +2854,13 @@
         <v>40</v>
       </c>
       <c r="E116">
-        <v>139910221.402</v>
+        <v>139910221.40200001</v>
       </c>
       <c r="F116">
         <v>11.72967698091484</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -2856,13 +2874,13 @@
         <v>41</v>
       </c>
       <c r="E117">
-        <v>9785844.829</v>
+        <v>9785844.8289999999</v>
       </c>
       <c r="F117">
-        <v>0.8204175340393323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.82041753403933226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -2879,10 +2897,10 @@
         <v>3341824.341</v>
       </c>
       <c r="F118">
-        <v>0.2801690945385659</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.28016909453856592</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2017</v>
       </c>
@@ -2896,13 +2914,13 @@
         <v>43</v>
       </c>
       <c r="E119">
-        <v>6931888.115</v>
+        <v>6931888.1150000002</v>
       </c>
       <c r="F119">
-        <v>0.5811498805592654</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.58114988055926542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2017</v>
       </c>
@@ -2916,13 +2934,13 @@
         <v>44</v>
       </c>
       <c r="E120">
-        <v>242531170.765</v>
+        <v>242531170.76499999</v>
       </c>
       <c r="F120">
-        <v>20.33312693218196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>20.333126932181958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2017</v>
       </c>
@@ -2936,13 +2954,13 @@
         <v>45</v>
       </c>
       <c r="E121">
-        <v>22081705.387</v>
+        <v>22081705.386999998</v>
       </c>
       <c r="F121">
-        <v>1.851267682816594</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.8512676828165939</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2018</v>
       </c>
@@ -2956,13 +2974,13 @@
         <v>26</v>
       </c>
       <c r="E122">
-        <v>2094936.582</v>
+        <v>2094936.5819999999</v>
       </c>
       <c r="F122">
-        <v>0.1660572617979683</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>0.16605726179796829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2018</v>
       </c>
@@ -2976,13 +2994,13 @@
         <v>27</v>
       </c>
       <c r="E123">
-        <v>15011833.086</v>
+        <v>15011833.085999999</v>
       </c>
       <c r="F123">
-        <v>1.189928095317066</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>1.1899280953170659</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2018</v>
       </c>
@@ -2996,13 +3014,13 @@
         <v>28</v>
       </c>
       <c r="E124">
-        <v>59257573.371</v>
+        <v>59257573.370999999</v>
       </c>
       <c r="F124">
         <v>4.697111339468921</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2018</v>
       </c>
@@ -3016,13 +3034,13 @@
         <v>29</v>
       </c>
       <c r="E125">
-        <v>4230746.849</v>
+        <v>4230746.8490000004</v>
       </c>
       <c r="F125">
         <v>0.3353544174757852</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2018</v>
       </c>
@@ -3036,13 +3054,13 @@
         <v>30</v>
       </c>
       <c r="E126">
-        <v>50019992.764</v>
+        <v>50019992.763999999</v>
       </c>
       <c r="F126">
-        <v>3.964885192665001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>3.9648851926650011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2018</v>
       </c>
@@ -3056,13 +3074,13 @@
         <v>31</v>
       </c>
       <c r="E127">
-        <v>40570398.895</v>
+        <v>40570398.895000003</v>
       </c>
       <c r="F127">
         <v>3.215853600743996</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -3076,13 +3094,13 @@
         <v>32</v>
       </c>
       <c r="E128">
-        <v>26834464.676</v>
+        <v>26834464.675999999</v>
       </c>
       <c r="F128">
-        <v>2.127060916400984</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>2.1270609164009842</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2018</v>
       </c>
@@ -3096,13 +3114,13 @@
         <v>33</v>
       </c>
       <c r="E129">
-        <v>16269604.315</v>
+        <v>16269604.314999999</v>
       </c>
       <c r="F129">
-        <v>1.289626600775693</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>1.2896266007756929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2018</v>
       </c>
@@ -3119,10 +3137,10 @@
         <v>12211677.274</v>
       </c>
       <c r="F130">
-        <v>0.9679709197425804</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>0.96797091974258043</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2018</v>
       </c>
@@ -3139,10 +3157,10 @@
         <v>25722815.695</v>
       </c>
       <c r="F131">
-        <v>2.038944938355897</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>2.0389449383558969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2018</v>
       </c>
@@ -3156,13 +3174,13 @@
         <v>36</v>
       </c>
       <c r="E132">
-        <v>33860309.606</v>
+        <v>33860309.605999999</v>
       </c>
       <c r="F132">
-        <v>2.683971603300688</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>2.6839716033006882</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2018</v>
       </c>
@@ -3176,13 +3194,13 @@
         <v>37</v>
       </c>
       <c r="E133">
-        <v>229900846.488</v>
+        <v>229900846.48800001</v>
       </c>
       <c r="F133">
-        <v>18.22332254868818</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>18.223322548688181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2018</v>
       </c>
@@ -3196,13 +3214,13 @@
         <v>38</v>
       </c>
       <c r="E134">
-        <v>229661997.561</v>
+        <v>229661997.56099999</v>
       </c>
       <c r="F134">
-        <v>18.2043899475098</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>18.204389947509799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2018</v>
       </c>
@@ -3216,13 +3234,13 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>65653668.584</v>
+        <v>65653668.583999999</v>
       </c>
       <c r="F135">
         <v>5.204104279682837</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2018</v>
       </c>
@@ -3242,7 +3260,7 @@
         <v>11.5423494618476</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2018</v>
       </c>
@@ -3256,13 +3274,13 @@
         <v>41</v>
       </c>
       <c r="E137">
-        <v>10452718.344</v>
+        <v>10452718.344000001</v>
       </c>
       <c r="F137">
-        <v>0.8285452655053374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>0.82854526550533736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2018</v>
       </c>
@@ -3282,7 +3300,7 @@
         <v>0.2799923569407875</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2018</v>
       </c>
@@ -3296,13 +3314,13 @@
         <v>43</v>
       </c>
       <c r="E139">
-        <v>7470995.237</v>
+        <v>7470995.2369999997</v>
       </c>
       <c r="F139">
-        <v>0.5921959751056002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.59219597510560018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2018</v>
       </c>
@@ -3316,13 +3334,13 @@
         <v>44</v>
       </c>
       <c r="E140">
-        <v>257086058.582</v>
+        <v>257086058.58199999</v>
       </c>
       <c r="F140">
-        <v>20.3781858130534</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>20.378185813053399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2018</v>
       </c>
@@ -3336,13 +3354,13 @@
         <v>45</v>
       </c>
       <c r="E141">
-        <v>26116484.15</v>
+        <v>26116484.149999999</v>
       </c>
       <c r="F141">
-        <v>2.070149465621885</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>2.0701494656218848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2019</v>
       </c>
@@ -3356,13 +3374,13 @@
         <v>26</v>
       </c>
       <c r="E142">
-        <v>1927495.783</v>
+        <v>1927495.7830000001</v>
       </c>
       <c r="F142">
-        <v>0.1535745998135996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.15357459981359961</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2019</v>
       </c>
@@ -3379,10 +3397,10 @@
         <v>13172608.907</v>
       </c>
       <c r="F143">
-        <v>1.049536999891627</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>1.0495369998916271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2019</v>
       </c>
@@ -3399,10 +3417,10 @@
         <v>54838515.706</v>
       </c>
       <c r="F144">
-        <v>4.369297810246231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>4.3692978102462314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2019</v>
       </c>
@@ -3419,10 +3437,10 @@
         <v>4825080.79</v>
       </c>
       <c r="F145">
-        <v>0.384441749719012</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0.38444174971901202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2019</v>
       </c>
@@ -3436,13 +3454,13 @@
         <v>30</v>
       </c>
       <c r="E146">
-        <v>49102647.602</v>
+        <v>49102647.601999998</v>
       </c>
       <c r="F146">
-        <v>3.912288432366109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>3.9122884323661089</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2019</v>
       </c>
@@ -3459,10 +3477,10 @@
         <v>38822839.853</v>
       </c>
       <c r="F147">
-        <v>3.093237425802421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>3.0932374258024211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2019</v>
       </c>
@@ -3482,7 +3500,7 @@
         <v>2.119681511783285</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2019</v>
       </c>
@@ -3502,7 +3520,7 @@
         <v>1.254179726107133</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2019</v>
       </c>
@@ -3516,13 +3534,13 @@
         <v>34</v>
       </c>
       <c r="E150">
-        <v>11734061.882</v>
+        <v>11734061.881999999</v>
       </c>
       <c r="F150">
-        <v>0.9349197407381115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>0.93491974073811146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2019</v>
       </c>
@@ -3536,13 +3554,13 @@
         <v>35</v>
       </c>
       <c r="E151">
-        <v>24887706.61</v>
+        <v>24887706.609999999</v>
       </c>
       <c r="F151">
         <v>1.982945756156306</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -3556,13 +3574,13 @@
         <v>36</v>
       </c>
       <c r="E152">
-        <v>33871433.641</v>
+        <v>33871433.641000003</v>
       </c>
       <c r="F152">
-        <v>2.698730608081164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>2.6987306080811639</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -3579,10 +3597,10 @@
         <v>231572914.558</v>
       </c>
       <c r="F153">
-        <v>18.45073695858444</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>18.450736958584439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -3599,10 +3617,10 @@
         <v>228675285.609</v>
       </c>
       <c r="F154">
-        <v>18.21986630756886</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>18.219866307568861</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -3616,13 +3634,13 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>65927702.008</v>
+        <v>65927702.008000001</v>
       </c>
       <c r="F155">
-        <v>5.252836629686596</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>5.2528366296865956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -3636,13 +3654,13 @@
         <v>40</v>
       </c>
       <c r="E156">
-        <v>147588623.603</v>
+        <v>147588623.60299999</v>
       </c>
       <c r="F156">
         <v>11.75922873957888</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2019</v>
       </c>
@@ -3656,13 +3674,13 @@
         <v>41</v>
       </c>
       <c r="E157">
-        <v>10717123.949</v>
+        <v>10717123.948999999</v>
       </c>
       <c r="F157">
         <v>0.8538944863779343</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2019</v>
       </c>
@@ -3682,7 +3700,7 @@
         <v>0.2840651173373227</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -3696,13 +3714,13 @@
         <v>43</v>
       </c>
       <c r="E159">
-        <v>8086519.555</v>
+        <v>8086519.5549999997</v>
       </c>
       <c r="F159">
         <v>0.6442992070317658</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2019</v>
       </c>
@@ -3719,10 +3737,10 @@
         <v>256609201.574</v>
       </c>
       <c r="F160">
-        <v>20.44552096444943</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>20.445520964449429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2019</v>
       </c>
@@ -3739,10 +3757,10 @@
         <v>26817673.318</v>
       </c>
       <c r="F161">
-        <v>2.136717228679767</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>2.1367172286797671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -3756,13 +3774,13 @@
         <v>26</v>
       </c>
       <c r="E162">
-        <v>1253136.59</v>
+        <v>1253136.5900000001</v>
       </c>
       <c r="F162">
-        <v>0.1061381388368002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>0.10613813883680021</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -3776,13 +3794,13 @@
         <v>27</v>
       </c>
       <c r="E163">
-        <v>8943330.782</v>
+        <v>8943330.7819999997</v>
       </c>
       <c r="F163">
-        <v>0.7574820588419213</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>0.75748205884192132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -3802,7 +3820,7 @@
         <v>3.941757882552781</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -3822,7 +3840,7 @@
         <v>0.3525896159911886</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -3839,10 +3857,10 @@
         <v>39786051.912</v>
       </c>
       <c r="F166">
-        <v>3.369798260861567</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>3.3697982608615669</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -3859,10 +3877,10 @@
         <v>31788039.978</v>
       </c>
       <c r="F167">
-        <v>2.692382799655318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>2.6923827996553178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -3879,10 +3897,10 @@
         <v>28897455.588</v>
       </c>
       <c r="F168">
-        <v>2.44755613849677</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>2.4475561384967701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -3902,7 +3920,7 @@
         <v>1.243059069263206</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -3916,13 +3934,13 @@
         <v>34</v>
       </c>
       <c r="E170">
-        <v>9603607.562000001</v>
+        <v>9603607.5620000008</v>
       </c>
       <c r="F170">
-        <v>0.8134061688755733</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>0.81340616887557327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -3936,13 +3954,13 @@
         <v>35</v>
       </c>
       <c r="E171">
-        <v>22055970.565</v>
+        <v>22055970.565000001</v>
       </c>
       <c r="F171">
-        <v>1.868096171390501</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>1.8680961713905011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -3959,10 +3977,10 @@
         <v>29655135.647</v>
       </c>
       <c r="F172">
-        <v>2.511730109584804</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>2.5117301095848039</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -3976,13 +3994,13 @@
         <v>37</v>
       </c>
       <c r="E173">
-        <v>202557442.813</v>
+        <v>202557442.81299999</v>
       </c>
       <c r="F173">
         <v>17.15620640182042</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -3996,13 +4014,13 @@
         <v>38</v>
       </c>
       <c r="E174">
-        <v>203000881.113</v>
+        <v>203000881.11300001</v>
       </c>
       <c r="F174">
-        <v>17.19376473043881</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>17.193764730438811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -4022,7 +4040,7 @@
         <v>10.67647067914916</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -4036,13 +4054,13 @@
         <v>40</v>
       </c>
       <c r="E176">
-        <v>124593055.952</v>
+        <v>124593055.95200001</v>
       </c>
       <c r="F176">
         <v>10.5527802605577</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -4056,13 +4074,13 @@
         <v>41</v>
       </c>
       <c r="E177">
-        <v>9927373.078</v>
+        <v>9927373.0779999997</v>
       </c>
       <c r="F177">
-        <v>0.8408284543327207</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>0.84082845433272069</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -4076,13 +4094,13 @@
         <v>42</v>
       </c>
       <c r="E178">
-        <v>3056736.294</v>
+        <v>3056736.2940000002</v>
       </c>
       <c r="F178">
-        <v>0.2588993919330518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>0.25889939193305178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -4096,13 +4114,13 @@
         <v>43</v>
       </c>
       <c r="E179">
-        <v>7622725.817</v>
+        <v>7622725.8169999998</v>
       </c>
       <c r="F179">
-        <v>0.6456294848749146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>0.64562948487491456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -4116,13 +4134,13 @@
         <v>44</v>
       </c>
       <c r="E180">
-        <v>249084091.894</v>
+        <v>249084091.89399999</v>
       </c>
       <c r="F180">
-        <v>21.09691963226743</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>21.096919632267429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -4136,13 +4154,13 @@
         <v>45</v>
       </c>
       <c r="E181">
-        <v>17408969.333</v>
+        <v>17408969.333000001</v>
       </c>
       <c r="F181">
         <v>1.474504550275362</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -4162,7 +4180,7 @@
         <v>0.1088989922831033</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2021</v>
       </c>
@@ -4182,7 +4200,7 @@
         <v>0.8208334816153956</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2021</v>
       </c>
@@ -4199,10 +4217,10 @@
         <v>61572971.217</v>
       </c>
       <c r="F184">
-        <v>4.518745910603226</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>4.5187459106032257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2021</v>
       </c>
@@ -4216,13 +4234,13 @@
         <v>29</v>
       </c>
       <c r="E185">
-        <v>5473601.908</v>
+        <v>5473601.9079999998</v>
       </c>
       <c r="F185">
-        <v>0.4016992480495423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.40169924804954232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2021</v>
       </c>
@@ -4236,13 +4254,13 @@
         <v>30</v>
       </c>
       <c r="E186">
-        <v>51844755.002</v>
+        <v>51844755.001999997</v>
       </c>
       <c r="F186">
-        <v>3.804807044731859</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>3.8048070447318589</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2021</v>
       </c>
@@ -4259,10 +4277,10 @@
         <v>39466054.713</v>
       </c>
       <c r="F187">
-        <v>2.896353218257136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>2.8963532182571359</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2021</v>
       </c>
@@ -4276,13 +4294,13 @@
         <v>32</v>
       </c>
       <c r="E188">
-        <v>31833092.768</v>
+        <v>31833092.767999999</v>
       </c>
       <c r="F188">
-        <v>2.336181849342655</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>2.3361818493426552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -4296,13 +4314,13 @@
         <v>33</v>
       </c>
       <c r="E189">
-        <v>17979207.672</v>
+        <v>17979207.671999998</v>
       </c>
       <c r="F189">
-        <v>1.319466472673731</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>1.3194664726737311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -4319,10 +4337,10 @@
         <v>11913513.342</v>
       </c>
       <c r="F190">
-        <v>0.8743144699864042</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.87431446998640416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2021</v>
       </c>
@@ -4336,13 +4354,13 @@
         <v>35</v>
       </c>
       <c r="E191">
-        <v>26879261.672</v>
+        <v>26879261.671999998</v>
       </c>
       <c r="F191">
-        <v>1.972627783907387</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>1.9726277839073869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2021</v>
       </c>
@@ -4356,13 +4374,13 @@
         <v>36</v>
       </c>
       <c r="E192">
-        <v>39007574.477</v>
+        <v>39007574.476999998</v>
       </c>
       <c r="F192">
         <v>2.862706057001656</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -4376,13 +4394,13 @@
         <v>37</v>
       </c>
       <c r="E193">
-        <v>252699221.543</v>
+        <v>252699221.54300001</v>
       </c>
       <c r="F193">
-        <v>18.54520825275331</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>18.545208252753309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -4396,13 +4414,13 @@
         <v>38</v>
       </c>
       <c r="E194">
-        <v>220936656.974</v>
+        <v>220936656.97400001</v>
       </c>
       <c r="F194">
-        <v>16.21420235975179</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>16.214202359751791</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -4416,13 +4434,13 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>87984448.949</v>
+        <v>87984448.949000001</v>
       </c>
       <c r="F195">
-        <v>6.45704374868956</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>6.4570437486895598</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -4436,13 +4454,13 @@
         <v>40</v>
       </c>
       <c r="E196">
-        <v>146496765.907</v>
+        <v>146496765.90700001</v>
       </c>
       <c r="F196">
         <v>10.75117293797387</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -4462,7 +4480,7 @@
         <v>0.9275885668777637</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -4476,13 +4494,13 @@
         <v>42</v>
       </c>
       <c r="E198">
-        <v>3782939.876</v>
+        <v>3782939.8760000002</v>
       </c>
       <c r="F198">
         <v>0.2776241548339195</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -4499,10 +4517,10 @@
         <v>10571763.953</v>
       </c>
       <c r="F199">
-        <v>0.7758455404421343</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.77584554044213427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -4516,13 +4534,13 @@
         <v>44</v>
       </c>
       <c r="E200">
-        <v>305643990.188</v>
+        <v>305643990.18800002</v>
       </c>
       <c r="F200">
-        <v>22.43074361142986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>22.430743611429861</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -4536,10 +4554,10 @@
         <v>45</v>
       </c>
       <c r="E201">
-        <v>23218039.42</v>
+        <v>23218039.420000002</v>
       </c>
       <c r="F201">
-        <v>1.703936298795706</v>
+        <v>1.7039362987957061</v>
       </c>
     </row>
   </sheetData>
@@ -4548,14 +4566,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4575,7 +4603,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -4589,13 +4617,13 @@
         <v>26</v>
       </c>
       <c r="E2">
-        <v>2764752.278</v>
+        <v>2764752.2779999999</v>
       </c>
       <c r="F2">
-        <v>0.2524380472141362</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.25243804721413621</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -4609,13 +4637,13 @@
         <v>27</v>
       </c>
       <c r="E3">
-        <v>14254054.675</v>
+        <v>14254054.675000001</v>
       </c>
       <c r="F3">
         <v>1.301478528717765</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -4629,13 +4657,13 @@
         <v>28</v>
       </c>
       <c r="E4">
-        <v>64810586.293</v>
+        <v>64810586.292999998</v>
       </c>
       <c r="F4">
-        <v>5.917585446188096</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>5.9175854461880961</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -4652,10 +4680,10 @@
         <v>3517713.602</v>
       </c>
       <c r="F5">
-        <v>0.3211878183132779</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>0.32118781831327792</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -4669,13 +4697,13 @@
         <v>30</v>
       </c>
       <c r="E6">
-        <v>45235788.966</v>
+        <v>45235788.965999998</v>
       </c>
       <c r="F6">
-        <v>4.130292005411926</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>4.1302920054119259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -4695,7 +4723,7 @@
         <v>3.605305666163821</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -4712,10 +4740,10 @@
         <v>21669628.555</v>
       </c>
       <c r="F8">
-        <v>1.978563779405586</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>1.9785637794055859</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -4735,7 +4763,7 @@
         <v>1.355944186106665</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -4749,13 +4777,13 @@
         <v>34</v>
       </c>
       <c r="E10">
-        <v>11282147.311</v>
+        <v>11282147.311000001</v>
       </c>
       <c r="F10">
         <v>1.030126011011486</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -4769,13 +4797,13 @@
         <v>35</v>
       </c>
       <c r="E11">
-        <v>22873144.531</v>
+        <v>22873144.530999999</v>
       </c>
       <c r="F11">
-        <v>2.08845182441779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>2.0884518244177901</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -4789,13 +4817,13 @@
         <v>36</v>
       </c>
       <c r="E12">
-        <v>26755879.04</v>
+        <v>26755879.039999999</v>
       </c>
       <c r="F12">
-        <v>2.442968185649231</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>2.4429681856492311</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -4809,13 +4837,13 @@
         <v>37</v>
       </c>
       <c r="E13">
-        <v>202954421.179</v>
+        <v>202954421.17899999</v>
       </c>
       <c r="F13">
-        <v>18.53092523463402</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>18.530925234634019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -4829,13 +4857,13 @@
         <v>38</v>
       </c>
       <c r="E14">
-        <v>199169708.42</v>
+        <v>199169708.41999999</v>
       </c>
       <c r="F14">
-        <v>18.18535883226559</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>18.185358832265589</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -4849,13 +4877,13 @@
         <v>39</v>
       </c>
       <c r="E15">
-        <v>56087006.008</v>
+        <v>56087006.008000001</v>
       </c>
       <c r="F15">
-        <v>5.121071563412976</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>5.1210715634129764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -4875,7 +4903,7 @@
         <v>11.08050568573135</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -4889,13 +4917,13 @@
         <v>41</v>
       </c>
       <c r="E17">
-        <v>8103089.913</v>
+        <v>8103089.9129999997</v>
       </c>
       <c r="F17">
-        <v>0.7398594840902</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
+        <v>0.73985948409019997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2012</v>
       </c>
@@ -4909,13 +4937,13 @@
         <v>42</v>
       </c>
       <c r="E18">
-        <v>3484085.492</v>
+        <v>3484085.4920000001</v>
       </c>
       <c r="F18">
-        <v>0.3181173752622126</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
+        <v>0.31811737526221262</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2012</v>
       </c>
@@ -4929,13 +4957,13 @@
         <v>43</v>
       </c>
       <c r="E19">
-        <v>6127088.422</v>
+        <v>6127088.4220000003</v>
       </c>
       <c r="F19">
-        <v>0.5594389951916059</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.55943899519160589</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2012</v>
       </c>
@@ -4952,10 +4980,10 @@
         <v>208166599.542</v>
       </c>
       <c r="F20">
-        <v>19.00682759238135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>19.006827592381349</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2012</v>
       </c>
@@ -4972,10 +5000,10 @@
         <v>22271889.649</v>
       </c>
       <c r="F21">
-        <v>2.033553738430917</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>2.0335537384309168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -4989,13 +5017,13 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>2768859.181</v>
+        <v>2768859.1809999999</v>
       </c>
       <c r="F22">
         <v>0.2397307501712721</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -5015,7 +5043,7 @@
         <v>1.26549867295387</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -5029,13 +5057,13 @@
         <v>28</v>
       </c>
       <c r="E24">
-        <v>70471403.19499999</v>
+        <v>70471403.194999993</v>
       </c>
       <c r="F24">
-        <v>6.101488464811721</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>6.1014884648117214</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -5052,10 +5080,10 @@
         <v>3635822.588</v>
       </c>
       <c r="F25">
-        <v>0.3147933569507506</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.31479335695075061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -5069,13 +5097,13 @@
         <v>30</v>
       </c>
       <c r="E26">
-        <v>48065452.393</v>
+        <v>48065452.392999999</v>
       </c>
       <c r="F26">
-        <v>4.161557596921162</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>4.1615575969211616</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -5089,13 +5117,13 @@
         <v>31</v>
       </c>
       <c r="E27">
-        <v>41351824.065</v>
+        <v>41351824.064999998</v>
       </c>
       <c r="F27">
-        <v>3.580284570655785</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>3.5802845706557851</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -5109,13 +5137,13 @@
         <v>32</v>
       </c>
       <c r="E28">
-        <v>23314448.834</v>
+        <v>23314448.833999999</v>
       </c>
       <c r="F28">
-        <v>2.018589586338577</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>2.0185895863385772</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -5132,10 +5160,10 @@
         <v>15899916.08</v>
       </c>
       <c r="F29">
-        <v>1.376631515128928</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>1.3766315151289279</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -5149,13 +5177,13 @@
         <v>34</v>
       </c>
       <c r="E30">
-        <v>12058539.323</v>
+        <v>12058539.323000001</v>
       </c>
       <c r="F30">
-        <v>1.044041061282334</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>1.0440410612823341</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -5169,13 +5197,13 @@
         <v>35</v>
       </c>
       <c r="E31">
-        <v>23701155.582</v>
+        <v>23701155.581999999</v>
       </c>
       <c r="F31">
-        <v>2.052071064714393</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>2.0520710647143932</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -5189,13 +5217,13 @@
         <v>36</v>
       </c>
       <c r="E32">
-        <v>29715124.995</v>
+        <v>29715124.995000001</v>
       </c>
       <c r="F32">
-        <v>2.572766883692403</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>2.5727668836924029</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2013</v>
       </c>
@@ -5209,13 +5237,13 @@
         <v>37</v>
       </c>
       <c r="E33">
-        <v>213462908.643</v>
+        <v>213462908.64300001</v>
       </c>
       <c r="F33">
-        <v>18.48184392109326</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>18.481843921093262</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2013</v>
       </c>
@@ -5232,10 +5260,10 @@
         <v>207679304.697</v>
       </c>
       <c r="F34">
-        <v>17.98109338737802</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>17.981093387378021</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2013</v>
       </c>
@@ -5249,13 +5277,13 @@
         <v>39</v>
       </c>
       <c r="E35">
-        <v>58980554.332</v>
+        <v>58980554.332000002</v>
       </c>
       <c r="F35">
-        <v>5.106598642702095</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>5.1065986427020951</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2013</v>
       </c>
@@ -5272,10 +5300,10 @@
         <v>129399949.002</v>
       </c>
       <c r="F36">
-        <v>11.20358415452903</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>11.203584154529031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2013</v>
       </c>
@@ -5289,13 +5317,13 @@
         <v>41</v>
       </c>
       <c r="E37">
-        <v>8457172.698000001</v>
+        <v>8457172.6980000008</v>
       </c>
       <c r="F37">
         <v>0.7322309379732741</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2013</v>
       </c>
@@ -5309,13 +5337,13 @@
         <v>42</v>
       </c>
       <c r="E38">
-        <v>3401526.192</v>
+        <v>3401526.1919999998</v>
       </c>
       <c r="F38">
         <v>0.2945077277064278</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2013</v>
       </c>
@@ -5329,13 +5357,13 @@
         <v>43</v>
       </c>
       <c r="E39">
-        <v>6393012.402</v>
+        <v>6393012.4019999998</v>
       </c>
       <c r="F39">
-        <v>0.5535137610112019</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.55351376101120187</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2013</v>
       </c>
@@ -5349,13 +5377,13 @@
         <v>44</v>
       </c>
       <c r="E40">
-        <v>218869893.357</v>
+        <v>218869893.35699999</v>
       </c>
       <c r="F40">
-        <v>18.94998636421443</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>18.949986364214428</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2013</v>
       </c>
@@ -5369,13 +5397,13 @@
         <v>45</v>
       </c>
       <c r="E41">
-        <v>22743862.043</v>
+        <v>22743862.043000001</v>
       </c>
       <c r="F41">
-        <v>1.969187579771075</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>1.9691875797710749</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -5389,13 +5417,13 @@
         <v>26</v>
       </c>
       <c r="E42">
-        <v>2679568.751</v>
+        <v>2679568.7510000002</v>
       </c>
       <c r="F42">
         <v>0.218688046146922</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2014</v>
       </c>
@@ -5412,10 +5440,10 @@
         <v>14783801.705</v>
       </c>
       <c r="F43">
-        <v>1.206552624665231</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>1.2065526246652309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2014</v>
       </c>
@@ -5429,13 +5457,13 @@
         <v>28</v>
       </c>
       <c r="E44">
-        <v>65035405.48</v>
+        <v>65035405.479999997</v>
       </c>
       <c r="F44">
-        <v>5.307744296348536</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>5.3077442963485364</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2014</v>
       </c>
@@ -5449,13 +5477,13 @@
         <v>29</v>
       </c>
       <c r="E45">
-        <v>3994865.793</v>
+        <v>3994865.7930000001</v>
       </c>
       <c r="F45">
-        <v>0.3260335808007578</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>0.32603358080075778</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2014</v>
       </c>
@@ -5469,13 +5497,13 @@
         <v>30</v>
       </c>
       <c r="E46">
-        <v>51628137.99</v>
+        <v>51628137.990000002</v>
       </c>
       <c r="F46">
-        <v>4.213534964916739</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>4.2135349649167386</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2014</v>
       </c>
@@ -5492,10 +5520,10 @@
         <v>42178873.592</v>
       </c>
       <c r="F47">
-        <v>3.442350733143209</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>3.4423507331432091</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2014</v>
       </c>
@@ -5509,13 +5537,13 @@
         <v>32</v>
       </c>
       <c r="E48">
-        <v>24746100.485</v>
+        <v>24746100.484999999</v>
       </c>
       <c r="F48">
         <v>2.019607208361585</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2014</v>
       </c>
@@ -5529,13 +5557,13 @@
         <v>33</v>
       </c>
       <c r="E49">
-        <v>16785140.99</v>
+        <v>16785140.989999998</v>
       </c>
       <c r="F49">
         <v>1.369888227735834</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2014</v>
       </c>
@@ -5549,13 +5577,13 @@
         <v>34</v>
       </c>
       <c r="E50">
-        <v>12638591.119</v>
+        <v>12638591.119000001</v>
       </c>
       <c r="F50">
         <v>1.031475231539581</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2014</v>
       </c>
@@ -5575,7 +5603,7 @@
         <v>1.971167769279176</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2014</v>
       </c>
@@ -5589,13 +5617,13 @@
         <v>36</v>
       </c>
       <c r="E52">
-        <v>32793574.523</v>
+        <v>32793574.522999998</v>
       </c>
       <c r="F52">
         <v>2.67638691335386</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2014</v>
       </c>
@@ -5615,7 +5643,7 @@
         <v>18.3714163095134</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2014</v>
       </c>
@@ -5629,13 +5657,13 @@
         <v>38</v>
       </c>
       <c r="E54">
-        <v>222972079.018</v>
+        <v>222972079.01800001</v>
       </c>
       <c r="F54">
-        <v>18.19745370876043</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>18.197453708760431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2014</v>
       </c>
@@ -5652,10 +5680,10 @@
         <v>63881506.441</v>
       </c>
       <c r="F55">
-        <v>5.213570961107354</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>5.2135709611073544</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2014</v>
       </c>
@@ -5669,13 +5697,13 @@
         <v>40</v>
       </c>
       <c r="E56">
-        <v>140461826.066</v>
+        <v>140461826.06600001</v>
       </c>
       <c r="F56">
-        <v>11.46353206617252</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>11.463532066172521</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2014</v>
       </c>
@@ -5689,13 +5717,13 @@
         <v>41</v>
       </c>
       <c r="E57">
-        <v>9495849.045</v>
+        <v>9495849.0449999999</v>
       </c>
       <c r="F57">
-        <v>0.774986151552252</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.77498615155225203</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2014</v>
       </c>
@@ -5709,13 +5737,13 @@
         <v>42</v>
       </c>
       <c r="E58">
-        <v>3652124.473</v>
+        <v>3652124.4730000002</v>
       </c>
       <c r="F58">
-        <v>0.2980613820741363</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.29806138207413629</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2014</v>
       </c>
@@ -5729,13 +5757,13 @@
         <v>43</v>
       </c>
       <c r="E59">
-        <v>6848517.84</v>
+        <v>6848517.8399999999</v>
       </c>
       <c r="F59">
-        <v>0.5589291130794869</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.55892911307948689</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2014</v>
       </c>
@@ -5749,13 +5777,13 @@
         <v>44</v>
       </c>
       <c r="E60">
-        <v>237641076.237</v>
+        <v>237641076.23699999</v>
       </c>
       <c r="F60">
         <v>19.39463677770037</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2014</v>
       </c>
@@ -5769,13 +5797,13 @@
         <v>45</v>
       </c>
       <c r="E61">
-        <v>23819493.992</v>
+        <v>23819493.991999999</v>
       </c>
       <c r="F61">
-        <v>1.943983933748609</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>1.9439839337486089</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
@@ -5789,13 +5817,13 @@
         <v>26</v>
       </c>
       <c r="E62">
-        <v>2150561.243</v>
+        <v>2150561.2429999998</v>
       </c>
       <c r="F62">
-        <v>0.1869112670755531</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.18691126707555311</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
@@ -5815,7 +5843,7 @@
         <v>1.136635811954428</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
@@ -5829,13 +5857,13 @@
         <v>28</v>
       </c>
       <c r="E64">
-        <v>57016866.079</v>
+        <v>57016866.079000004</v>
       </c>
       <c r="F64">
-        <v>4.95549462643367</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>4.9554946264336701</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
@@ -5849,13 +5877,13 @@
         <v>29</v>
       </c>
       <c r="E65">
-        <v>3916675.043</v>
+        <v>3916675.0430000001</v>
       </c>
       <c r="F65">
-        <v>0.340409136170007</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.34040913617000701</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
@@ -5872,10 +5900,10 @@
         <v>45546308.283</v>
       </c>
       <c r="F66">
-        <v>3.958556502168532</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>3.9585565021685318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
@@ -5889,13 +5917,13 @@
         <v>31</v>
       </c>
       <c r="E67">
-        <v>38260460.176</v>
+        <v>38260460.175999999</v>
       </c>
       <c r="F67">
         <v>3.325323151650371</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -5909,13 +5937,13 @@
         <v>32</v>
       </c>
       <c r="E68">
-        <v>23272690.823</v>
+        <v>23272690.822999999</v>
       </c>
       <c r="F68">
         <v>2.022694375314066</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -5935,7 +5963,7 @@
         <v>1.306715922104545</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -5952,10 +5980,10 @@
         <v>11435249.896</v>
       </c>
       <c r="F70">
-        <v>0.9938694163414469</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6">
+        <v>0.99386941634144688</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
@@ -5969,13 +5997,13 @@
         <v>35</v>
       </c>
       <c r="E71">
-        <v>22105538.664</v>
+        <v>22105538.664000001</v>
       </c>
       <c r="F71">
         <v>1.921253930584236</v>
       </c>
     </row>
-    <row r="72" spans="1:6">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
@@ -5989,13 +6017,13 @@
         <v>36</v>
       </c>
       <c r="E72">
-        <v>29571432.409</v>
+        <v>29571432.409000002</v>
       </c>
       <c r="F72">
         <v>2.570135548939243</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
@@ -6009,13 +6037,13 @@
         <v>37</v>
       </c>
       <c r="E73">
-        <v>212865897.687</v>
+        <v>212865897.68700001</v>
       </c>
       <c r="F73">
         <v>18.50076801270254</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
@@ -6029,13 +6057,13 @@
         <v>38</v>
       </c>
       <c r="E74">
-        <v>212169182.85</v>
+        <v>212169182.84999999</v>
       </c>
       <c r="F74">
-        <v>18.44021458582485</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>18.440214585824851</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
@@ -6049,13 +6077,13 @@
         <v>39</v>
       </c>
       <c r="E75">
-        <v>59036234.711</v>
+        <v>59036234.711000003</v>
       </c>
       <c r="F75">
-        <v>5.131003578307656</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>5.1310035783076557</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
@@ -6069,13 +6097,13 @@
         <v>40</v>
       </c>
       <c r="E76">
-        <v>134610224.707</v>
+        <v>134610224.70699999</v>
       </c>
       <c r="F76">
-        <v>11.69934952710867</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>11.699349527108669</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
@@ -6089,13 +6117,13 @@
         <v>41</v>
       </c>
       <c r="E77">
-        <v>9052343.855</v>
+        <v>9052343.8550000004</v>
       </c>
       <c r="F77">
-        <v>0.7867644157770433</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.78676441577704326</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
@@ -6109,13 +6137,13 @@
         <v>42</v>
       </c>
       <c r="E78">
-        <v>3636325.239</v>
+        <v>3636325.2390000001</v>
       </c>
       <c r="F78">
-        <v>0.3160431539127777</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.31604315391277771</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
@@ -6129,13 +6157,13 @@
         <v>43</v>
       </c>
       <c r="E79">
-        <v>6643183.114</v>
+        <v>6643183.1140000001</v>
       </c>
       <c r="F79">
-        <v>0.5773775461146718</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>0.57737754611467185</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
@@ -6149,13 +6177,13 @@
         <v>44</v>
       </c>
       <c r="E80">
-        <v>226711691.834</v>
+        <v>226711691.83399999</v>
       </c>
       <c r="F80">
-        <v>19.70414454341362</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>19.704144543413619</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
@@ -6169,13 +6197,13 @@
         <v>45</v>
       </c>
       <c r="E81">
-        <v>24465157.187</v>
+        <v>24465157.186999999</v>
       </c>
       <c r="F81">
-        <v>2.126334948102078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>2.1263349481020781</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2016</v>
       </c>
@@ -6189,13 +6217,13 @@
         <v>26</v>
       </c>
       <c r="E82">
-        <v>1970500.705</v>
+        <v>1970500.7050000001</v>
       </c>
       <c r="F82">
-        <v>0.172899830580537</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>0.17289983058053701</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2016</v>
       </c>
@@ -6215,7 +6243,7 @@
         <v>1.14015068142943</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2016</v>
       </c>
@@ -6229,13 +6257,13 @@
         <v>28</v>
       </c>
       <c r="E84">
-        <v>53174739.148</v>
+        <v>53174739.148000002</v>
       </c>
       <c r="F84">
-        <v>4.665770160104281</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>4.6657701601042811</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2016</v>
       </c>
@@ -6249,13 +6277,13 @@
         <v>29</v>
       </c>
       <c r="E85">
-        <v>3860974.458</v>
+        <v>3860974.4580000001</v>
       </c>
       <c r="F85">
-        <v>0.3387777674832046</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.33877776748320459</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2016</v>
       </c>
@@ -6269,13 +6297,13 @@
         <v>30</v>
       </c>
       <c r="E86">
-        <v>44246474.91</v>
+        <v>44246474.909999996</v>
       </c>
       <c r="F86">
         <v>3.88236756085047</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2016</v>
       </c>
@@ -6289,13 +6317,13 @@
         <v>31</v>
       </c>
       <c r="E87">
-        <v>37075292.902</v>
+        <v>37075292.902000003</v>
       </c>
       <c r="F87">
-        <v>3.253138578034453</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>3.2531385780344531</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2016</v>
       </c>
@@ -6309,13 +6337,13 @@
         <v>32</v>
       </c>
       <c r="E88">
-        <v>23680839.925</v>
+        <v>23680839.925000001</v>
       </c>
       <c r="F88">
-        <v>2.077854222862263</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>2.0778542228622632</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2016</v>
       </c>
@@ -6335,7 +6363,7 @@
         <v>1.312342456965977</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2016</v>
       </c>
@@ -6349,13 +6377,13 @@
         <v>34</v>
       </c>
       <c r="E90">
-        <v>11678378.847</v>
+        <v>11678378.846999999</v>
       </c>
       <c r="F90">
-        <v>1.024708957970978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>1.0247089579709781</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2016</v>
       </c>
@@ -6375,7 +6403,7 @@
         <v>2.041065304656196</v>
       </c>
     </row>
-    <row r="92" spans="1:6">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2016</v>
       </c>
@@ -6389,13 +6417,13 @@
         <v>36</v>
       </c>
       <c r="E92">
-        <v>29798086.87</v>
+        <v>29798086.870000001</v>
       </c>
       <c r="F92">
-        <v>2.614606611595769</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>2.6146066115957689</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2016</v>
       </c>
@@ -6409,13 +6437,13 @@
         <v>37</v>
       </c>
       <c r="E93">
-        <v>210295746.459</v>
+        <v>210295746.45899999</v>
       </c>
       <c r="F93">
         <v>18.4522131061956</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2016</v>
       </c>
@@ -6429,13 +6457,13 @@
         <v>38</v>
       </c>
       <c r="E94">
-        <v>209122112.844</v>
+        <v>209122112.84400001</v>
       </c>
       <c r="F94">
-        <v>18.34923366920163</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>18.349233669201631</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2016</v>
       </c>
@@ -6449,13 +6477,13 @@
         <v>39</v>
       </c>
       <c r="E95">
-        <v>59014510.093</v>
+        <v>59014510.093000002</v>
       </c>
       <c r="F95">
-        <v>5.178175664176223</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>5.1781756641762229</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2016</v>
       </c>
@@ -6469,13 +6497,13 @@
         <v>40</v>
       </c>
       <c r="E96">
-        <v>133721406.731</v>
+        <v>133721406.73100001</v>
       </c>
       <c r="F96">
-        <v>11.7332658192482</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6">
+        <v>11.733265819248199</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2016</v>
       </c>
@@ -6489,13 +6517,13 @@
         <v>41</v>
       </c>
       <c r="E97">
-        <v>9269613.687999999</v>
+        <v>9269613.6879999992</v>
       </c>
       <c r="F97">
-        <v>0.8133540029371503</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.81335400293715032</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2016</v>
       </c>
@@ -6509,13 +6537,13 @@
         <v>42</v>
       </c>
       <c r="E98">
-        <v>3436131.769</v>
+        <v>3436131.7689999999</v>
       </c>
       <c r="F98">
-        <v>0.3015003238542363</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.30150032385423631</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2016</v>
       </c>
@@ -6529,13 +6557,13 @@
         <v>43</v>
       </c>
       <c r="E99">
-        <v>6153812.715</v>
+        <v>6153812.7149999999</v>
       </c>
       <c r="F99">
-        <v>0.5399608196779886</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>0.53996081967798859</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2016</v>
       </c>
@@ -6549,13 +6577,13 @@
         <v>44</v>
       </c>
       <c r="E100">
-        <v>228867625.54</v>
+        <v>228867625.53999999</v>
       </c>
       <c r="F100">
-        <v>20.08178610686454</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6">
+        <v>20.081786106864541</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2016</v>
       </c>
@@ -6569,13 +6597,13 @@
         <v>45</v>
       </c>
       <c r="E101">
-        <v>23099309.523</v>
+        <v>23099309.522999998</v>
       </c>
       <c r="F101">
         <v>2.026828355310883</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2017</v>
       </c>
@@ -6589,13 +6617,13 @@
         <v>26</v>
       </c>
       <c r="E102">
-        <v>1979356.414</v>
+        <v>1979356.4140000001</v>
       </c>
       <c r="F102">
-        <v>0.165943639668846</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.16594363966884601</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2017</v>
       </c>
@@ -6612,10 +6640,10 @@
         <v>13349482.003</v>
       </c>
       <c r="F103">
-        <v>1.119182788710016</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>1.1191827887100161</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2017</v>
       </c>
@@ -6629,13 +6657,13 @@
         <v>28</v>
       </c>
       <c r="E104">
-        <v>56816207.659</v>
+        <v>56816207.659000002</v>
       </c>
       <c r="F104">
-        <v>4.763310045845752</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6">
+        <v>4.7633100458457518</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2017</v>
       </c>
@@ -6655,7 +6683,7 @@
         <v>0.3223176952382808</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2017</v>
       </c>
@@ -6672,10 +6700,10 @@
         <v>46995319.636</v>
       </c>
       <c r="F106">
-        <v>3.939954589602591</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6">
+        <v>3.9399545896025909</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2017</v>
       </c>
@@ -6689,13 +6717,13 @@
         <v>31</v>
       </c>
       <c r="E107">
-        <v>38715002.946</v>
+        <v>38715002.946000002</v>
       </c>
       <c r="F107">
-        <v>3.245756273710357</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6">
+        <v>3.2457562737103571</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2017</v>
       </c>
@@ -6709,13 +6737,13 @@
         <v>32</v>
       </c>
       <c r="E108">
-        <v>24685644.372</v>
+        <v>24685644.372000001</v>
       </c>
       <c r="F108">
-        <v>2.069574557510916</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6">
+        <v>2.0695745575109159</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2017</v>
       </c>
@@ -6729,13 +6757,13 @@
         <v>33</v>
       </c>
       <c r="E109">
-        <v>15371375.485</v>
+        <v>15371375.484999999</v>
       </c>
       <c r="F109">
-        <v>1.288692615769285</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6">
+        <v>1.2886926157692851</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2017</v>
       </c>
@@ -6749,13 +6777,13 @@
         <v>34</v>
       </c>
       <c r="E110">
-        <v>11939763.471</v>
+        <v>11939763.471000001</v>
       </c>
       <c r="F110">
-        <v>1.000995976848298</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6">
+        <v>1.0009959768482981</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2017</v>
       </c>
@@ -6769,13 +6797,13 @@
         <v>35</v>
       </c>
       <c r="E111">
-        <v>24754467.527</v>
+        <v>24754467.526999999</v>
       </c>
       <c r="F111">
         <v>2.075344496039123</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2017</v>
       </c>
@@ -6789,13 +6817,13 @@
         <v>36</v>
       </c>
       <c r="E112">
-        <v>33180585.613</v>
+        <v>33180585.613000002</v>
       </c>
       <c r="F112">
-        <v>2.78176638831705</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6">
+        <v>2.7817663883170498</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2017</v>
       </c>
@@ -6812,10 +6840,10 @@
         <v>216632581.345</v>
       </c>
       <c r="F113">
-        <v>18.161862494789</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6">
+        <v>18.161862494788998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2017</v>
       </c>
@@ -6829,13 +6857,13 @@
         <v>38</v>
       </c>
       <c r="E114">
-        <v>218502795.239</v>
+        <v>218502795.23899999</v>
       </c>
       <c r="F114">
         <v>18.31865593448207</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2017</v>
       </c>
@@ -6849,13 +6877,13 @@
         <v>39</v>
       </c>
       <c r="E115">
-        <v>61438553.019</v>
+        <v>61438553.019000001</v>
       </c>
       <c r="F115">
-        <v>5.150834398417861</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6">
+        <v>5.1508343984178611</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2017</v>
       </c>
@@ -6869,13 +6897,13 @@
         <v>40</v>
       </c>
       <c r="E116">
-        <v>139910221.402</v>
+        <v>139910221.40200001</v>
       </c>
       <c r="F116">
         <v>11.72967698091484</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2017</v>
       </c>
@@ -6889,13 +6917,13 @@
         <v>41</v>
       </c>
       <c r="E117">
-        <v>9785844.829</v>
+        <v>9785844.8289999999</v>
       </c>
       <c r="F117">
-        <v>0.8204175340393323</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6">
+        <v>0.82041753403933226</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2017</v>
       </c>
@@ -6912,10 +6940,10 @@
         <v>3341824.341</v>
       </c>
       <c r="F118">
-        <v>0.2801690945385659</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6">
+        <v>0.28016909453856592</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2017</v>
       </c>
@@ -6929,13 +6957,13 @@
         <v>43</v>
       </c>
       <c r="E119">
-        <v>6931888.115</v>
+        <v>6931888.1150000002</v>
       </c>
       <c r="F119">
-        <v>0.5811498805592654</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6">
+        <v>0.58114988055926542</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2017</v>
       </c>
@@ -6949,13 +6977,13 @@
         <v>44</v>
       </c>
       <c r="E120">
-        <v>242531170.765</v>
+        <v>242531170.76499999</v>
       </c>
       <c r="F120">
-        <v>20.33312693218196</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6">
+        <v>20.333126932181958</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2017</v>
       </c>
@@ -6969,13 +6997,13 @@
         <v>45</v>
       </c>
       <c r="E121">
-        <v>22081705.387</v>
+        <v>22081705.386999998</v>
       </c>
       <c r="F121">
-        <v>1.851267682816594</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6">
+        <v>1.8512676828165939</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2018</v>
       </c>
@@ -6989,13 +7017,13 @@
         <v>26</v>
       </c>
       <c r="E122">
-        <v>2094936.582</v>
+        <v>2094936.5819999999</v>
       </c>
       <c r="F122">
-        <v>0.1660572617979683</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6">
+        <v>0.16605726179796829</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2018</v>
       </c>
@@ -7009,13 +7037,13 @@
         <v>27</v>
       </c>
       <c r="E123">
-        <v>15011833.086</v>
+        <v>15011833.085999999</v>
       </c>
       <c r="F123">
-        <v>1.189928095317066</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6">
+        <v>1.1899280953170659</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2018</v>
       </c>
@@ -7029,13 +7057,13 @@
         <v>28</v>
       </c>
       <c r="E124">
-        <v>59257573.371</v>
+        <v>59257573.370999999</v>
       </c>
       <c r="F124">
         <v>4.697111339468921</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2018</v>
       </c>
@@ -7049,13 +7077,13 @@
         <v>29</v>
       </c>
       <c r="E125">
-        <v>4230746.849</v>
+        <v>4230746.8490000004</v>
       </c>
       <c r="F125">
         <v>0.3353544174757852</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2018</v>
       </c>
@@ -7069,13 +7097,13 @@
         <v>30</v>
       </c>
       <c r="E126">
-        <v>50019992.764</v>
+        <v>50019992.763999999</v>
       </c>
       <c r="F126">
-        <v>3.964885192665001</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6">
+        <v>3.9648851926650011</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2018</v>
       </c>
@@ -7089,13 +7117,13 @@
         <v>31</v>
       </c>
       <c r="E127">
-        <v>40570398.895</v>
+        <v>40570398.895000003</v>
       </c>
       <c r="F127">
         <v>3.215853600743996</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2018</v>
       </c>
@@ -7109,13 +7137,13 @@
         <v>32</v>
       </c>
       <c r="E128">
-        <v>26834464.676</v>
+        <v>26834464.675999999</v>
       </c>
       <c r="F128">
-        <v>2.127060916400984</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
+        <v>2.1270609164009842</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2018</v>
       </c>
@@ -7129,13 +7157,13 @@
         <v>33</v>
       </c>
       <c r="E129">
-        <v>16269604.315</v>
+        <v>16269604.314999999</v>
       </c>
       <c r="F129">
-        <v>1.289626600775693</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
+        <v>1.2896266007756929</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2018</v>
       </c>
@@ -7152,10 +7180,10 @@
         <v>12211677.274</v>
       </c>
       <c r="F130">
-        <v>0.9679709197425804</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
+        <v>0.96797091974258043</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2018</v>
       </c>
@@ -7172,10 +7200,10 @@
         <v>25722815.695</v>
       </c>
       <c r="F131">
-        <v>2.038944938355897</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
+        <v>2.0389449383558969</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2018</v>
       </c>
@@ -7189,13 +7217,13 @@
         <v>36</v>
       </c>
       <c r="E132">
-        <v>33860309.606</v>
+        <v>33860309.605999999</v>
       </c>
       <c r="F132">
-        <v>2.683971603300688</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
+        <v>2.6839716033006882</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2018</v>
       </c>
@@ -7209,13 +7237,13 @@
         <v>37</v>
       </c>
       <c r="E133">
-        <v>229900846.488</v>
+        <v>229900846.48800001</v>
       </c>
       <c r="F133">
-        <v>18.22332254868818</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
+        <v>18.223322548688181</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2018</v>
       </c>
@@ -7229,13 +7257,13 @@
         <v>38</v>
       </c>
       <c r="E134">
-        <v>229661997.561</v>
+        <v>229661997.56099999</v>
       </c>
       <c r="F134">
-        <v>18.2043899475098</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
+        <v>18.204389947509799</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2018</v>
       </c>
@@ -7249,13 +7277,13 @@
         <v>39</v>
       </c>
       <c r="E135">
-        <v>65653668.584</v>
+        <v>65653668.583999999</v>
       </c>
       <c r="F135">
         <v>5.204104279682837</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2018</v>
       </c>
@@ -7275,7 +7303,7 @@
         <v>11.5423494618476</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2018</v>
       </c>
@@ -7289,13 +7317,13 @@
         <v>41</v>
       </c>
       <c r="E137">
-        <v>10452718.344</v>
+        <v>10452718.344000001</v>
       </c>
       <c r="F137">
-        <v>0.8285452655053374</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
+        <v>0.82854526550533736</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2018</v>
       </c>
@@ -7315,7 +7343,7 @@
         <v>0.2799923569407875</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2018</v>
       </c>
@@ -7329,13 +7357,13 @@
         <v>43</v>
       </c>
       <c r="E139">
-        <v>7470995.237</v>
+        <v>7470995.2369999997</v>
       </c>
       <c r="F139">
-        <v>0.5921959751056002</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
+        <v>0.59219597510560018</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2018</v>
       </c>
@@ -7349,13 +7377,13 @@
         <v>44</v>
       </c>
       <c r="E140">
-        <v>257086058.582</v>
+        <v>257086058.58199999</v>
       </c>
       <c r="F140">
-        <v>20.3781858130534</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
+        <v>20.378185813053399</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2018</v>
       </c>
@@ -7369,13 +7397,13 @@
         <v>45</v>
       </c>
       <c r="E141">
-        <v>26116484.15</v>
+        <v>26116484.149999999</v>
       </c>
       <c r="F141">
-        <v>2.070149465621885</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
+        <v>2.0701494656218848</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2019</v>
       </c>
@@ -7389,13 +7417,13 @@
         <v>26</v>
       </c>
       <c r="E142">
-        <v>1927495.783</v>
+        <v>1927495.7830000001</v>
       </c>
       <c r="F142">
-        <v>0.1535745998135996</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
+        <v>0.15357459981359961</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2019</v>
       </c>
@@ -7412,10 +7440,10 @@
         <v>13172608.907</v>
       </c>
       <c r="F143">
-        <v>1.049536999891627</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
+        <v>1.0495369998916271</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2019</v>
       </c>
@@ -7432,10 +7460,10 @@
         <v>54838515.706</v>
       </c>
       <c r="F144">
-        <v>4.369297810246231</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
+        <v>4.3692978102462314</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2019</v>
       </c>
@@ -7452,10 +7480,10 @@
         <v>4825080.79</v>
       </c>
       <c r="F145">
-        <v>0.384441749719012</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
+        <v>0.38444174971901202</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2019</v>
       </c>
@@ -7469,13 +7497,13 @@
         <v>30</v>
       </c>
       <c r="E146">
-        <v>49102647.602</v>
+        <v>49102647.601999998</v>
       </c>
       <c r="F146">
-        <v>3.912288432366109</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
+        <v>3.9122884323661089</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2019</v>
       </c>
@@ -7492,10 +7520,10 @@
         <v>38822839.853</v>
       </c>
       <c r="F147">
-        <v>3.093237425802421</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
+        <v>3.0932374258024211</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2019</v>
       </c>
@@ -7515,7 +7543,7 @@
         <v>2.119681511783285</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2019</v>
       </c>
@@ -7535,7 +7563,7 @@
         <v>1.254179726107133</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2019</v>
       </c>
@@ -7549,13 +7577,13 @@
         <v>34</v>
       </c>
       <c r="E150">
-        <v>11734061.882</v>
+        <v>11734061.881999999</v>
       </c>
       <c r="F150">
-        <v>0.9349197407381115</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
+        <v>0.93491974073811146</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2019</v>
       </c>
@@ -7569,13 +7597,13 @@
         <v>35</v>
       </c>
       <c r="E151">
-        <v>24887706.61</v>
+        <v>24887706.609999999</v>
       </c>
       <c r="F151">
         <v>1.982945756156306</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2019</v>
       </c>
@@ -7589,13 +7617,13 @@
         <v>36</v>
       </c>
       <c r="E152">
-        <v>33871433.641</v>
+        <v>33871433.641000003</v>
       </c>
       <c r="F152">
-        <v>2.698730608081164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
+        <v>2.6987306080811639</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2019</v>
       </c>
@@ -7612,10 +7640,10 @@
         <v>231572914.558</v>
       </c>
       <c r="F153">
-        <v>18.45073695858444</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
+        <v>18.450736958584439</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2019</v>
       </c>
@@ -7632,10 +7660,10 @@
         <v>228675285.609</v>
       </c>
       <c r="F154">
-        <v>18.21986630756886</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
+        <v>18.219866307568861</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2019</v>
       </c>
@@ -7649,13 +7677,13 @@
         <v>39</v>
       </c>
       <c r="E155">
-        <v>65927702.008</v>
+        <v>65927702.008000001</v>
       </c>
       <c r="F155">
-        <v>5.252836629686596</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
+        <v>5.2528366296865956</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2019</v>
       </c>
@@ -7669,13 +7697,13 @@
         <v>40</v>
       </c>
       <c r="E156">
-        <v>147588623.603</v>
+        <v>147588623.60299999</v>
       </c>
       <c r="F156">
         <v>11.75922873957888</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2019</v>
       </c>
@@ -7689,13 +7717,13 @@
         <v>41</v>
       </c>
       <c r="E157">
-        <v>10717123.949</v>
+        <v>10717123.948999999</v>
       </c>
       <c r="F157">
         <v>0.8538944863779343</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2019</v>
       </c>
@@ -7715,7 +7743,7 @@
         <v>0.2840651173373227</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2019</v>
       </c>
@@ -7729,13 +7757,13 @@
         <v>43</v>
       </c>
       <c r="E159">
-        <v>8086519.555</v>
+        <v>8086519.5549999997</v>
       </c>
       <c r="F159">
         <v>0.6442992070317658</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2019</v>
       </c>
@@ -7752,10 +7780,10 @@
         <v>256609201.574</v>
       </c>
       <c r="F160">
-        <v>20.44552096444943</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
+        <v>20.445520964449429</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2019</v>
       </c>
@@ -7772,10 +7800,10 @@
         <v>26817673.318</v>
       </c>
       <c r="F161">
-        <v>2.136717228679767</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
+        <v>2.1367172286797671</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2020</v>
       </c>
@@ -7789,13 +7817,13 @@
         <v>26</v>
       </c>
       <c r="E162">
-        <v>1253136.59</v>
+        <v>1253136.5900000001</v>
       </c>
       <c r="F162">
-        <v>0.1061381388368002</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
+        <v>0.10613813883680021</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2020</v>
       </c>
@@ -7809,13 +7837,13 @@
         <v>27</v>
       </c>
       <c r="E163">
-        <v>8943330.782</v>
+        <v>8943330.7819999997</v>
       </c>
       <c r="F163">
-        <v>0.7574820588419213</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
+        <v>0.75748205884192132</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2020</v>
       </c>
@@ -7835,7 +7863,7 @@
         <v>3.941757882552781</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2020</v>
       </c>
@@ -7855,7 +7883,7 @@
         <v>0.3525896159911886</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2020</v>
       </c>
@@ -7872,10 +7900,10 @@
         <v>39786051.912</v>
       </c>
       <c r="F166">
-        <v>3.369798260861567</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
+        <v>3.3697982608615669</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2020</v>
       </c>
@@ -7892,10 +7920,10 @@
         <v>31788039.978</v>
       </c>
       <c r="F167">
-        <v>2.692382799655318</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
+        <v>2.6923827996553178</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2020</v>
       </c>
@@ -7912,10 +7940,10 @@
         <v>28897455.588</v>
       </c>
       <c r="F168">
-        <v>2.44755613849677</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
+        <v>2.4475561384967701</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2020</v>
       </c>
@@ -7935,7 +7963,7 @@
         <v>1.243059069263206</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2020</v>
       </c>
@@ -7949,13 +7977,13 @@
         <v>34</v>
       </c>
       <c r="E170">
-        <v>9603607.562000001</v>
+        <v>9603607.5620000008</v>
       </c>
       <c r="F170">
-        <v>0.8134061688755733</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
+        <v>0.81340616887557327</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2020</v>
       </c>
@@ -7969,13 +7997,13 @@
         <v>35</v>
       </c>
       <c r="E171">
-        <v>22055970.565</v>
+        <v>22055970.565000001</v>
       </c>
       <c r="F171">
-        <v>1.868096171390501</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
+        <v>1.8680961713905011</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2020</v>
       </c>
@@ -7992,10 +8020,10 @@
         <v>29655135.647</v>
       </c>
       <c r="F172">
-        <v>2.511730109584804</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
+        <v>2.5117301095848039</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2020</v>
       </c>
@@ -8009,13 +8037,13 @@
         <v>37</v>
       </c>
       <c r="E173">
-        <v>202557442.813</v>
+        <v>202557442.81299999</v>
       </c>
       <c r="F173">
         <v>17.15620640182042</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2020</v>
       </c>
@@ -8029,13 +8057,13 @@
         <v>38</v>
       </c>
       <c r="E174">
-        <v>203000881.113</v>
+        <v>203000881.11300001</v>
       </c>
       <c r="F174">
-        <v>17.19376473043881</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
+        <v>17.193764730438811</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2020</v>
       </c>
@@ -8055,7 +8083,7 @@
         <v>10.67647067914916</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2020</v>
       </c>
@@ -8069,13 +8097,13 @@
         <v>40</v>
       </c>
       <c r="E176">
-        <v>124593055.952</v>
+        <v>124593055.95200001</v>
       </c>
       <c r="F176">
         <v>10.5527802605577</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2020</v>
       </c>
@@ -8089,13 +8117,13 @@
         <v>41</v>
       </c>
       <c r="E177">
-        <v>9927373.078</v>
+        <v>9927373.0779999997</v>
       </c>
       <c r="F177">
-        <v>0.8408284543327207</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
+        <v>0.84082845433272069</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2020</v>
       </c>
@@ -8109,13 +8137,13 @@
         <v>42</v>
       </c>
       <c r="E178">
-        <v>3056736.294</v>
+        <v>3056736.2940000002</v>
       </c>
       <c r="F178">
-        <v>0.2588993919330518</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
+        <v>0.25889939193305178</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2020</v>
       </c>
@@ -8129,13 +8157,13 @@
         <v>43</v>
       </c>
       <c r="E179">
-        <v>7622725.817</v>
+        <v>7622725.8169999998</v>
       </c>
       <c r="F179">
-        <v>0.6456294848749146</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6">
+        <v>0.64562948487491456</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2020</v>
       </c>
@@ -8149,13 +8177,13 @@
         <v>44</v>
       </c>
       <c r="E180">
-        <v>249084091.894</v>
+        <v>249084091.89399999</v>
       </c>
       <c r="F180">
-        <v>21.09691963226743</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6">
+        <v>21.096919632267429</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2020</v>
       </c>
@@ -8169,13 +8197,13 @@
         <v>45</v>
       </c>
       <c r="E181">
-        <v>17408969.333</v>
+        <v>17408969.333000001</v>
       </c>
       <c r="F181">
         <v>1.474504550275362</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2021</v>
       </c>
@@ -8195,7 +8223,7 @@
         <v>0.1088989922831033</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2021</v>
       </c>
@@ -8215,7 +8243,7 @@
         <v>0.8208334816153956</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2021</v>
       </c>
@@ -8232,10 +8260,10 @@
         <v>61572971.217</v>
       </c>
       <c r="F184">
-        <v>4.518745910603226</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6">
+        <v>4.5187459106032257</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2021</v>
       </c>
@@ -8249,13 +8277,13 @@
         <v>29</v>
       </c>
       <c r="E185">
-        <v>5473601.908</v>
+        <v>5473601.9079999998</v>
       </c>
       <c r="F185">
-        <v>0.4016992480495423</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6">
+        <v>0.40169924804954232</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2021</v>
       </c>
@@ -8269,13 +8297,13 @@
         <v>30</v>
       </c>
       <c r="E186">
-        <v>51844755.002</v>
+        <v>51844755.001999997</v>
       </c>
       <c r="F186">
-        <v>3.804807044731859</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6">
+        <v>3.8048070447318589</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2021</v>
       </c>
@@ -8292,10 +8320,10 @@
         <v>39466054.713</v>
       </c>
       <c r="F187">
-        <v>2.896353218257136</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6">
+        <v>2.8963532182571359</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2021</v>
       </c>
@@ -8309,13 +8337,13 @@
         <v>32</v>
       </c>
       <c r="E188">
-        <v>31833092.768</v>
+        <v>31833092.767999999</v>
       </c>
       <c r="F188">
-        <v>2.336181849342655</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6">
+        <v>2.3361818493426552</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2021</v>
       </c>
@@ -8329,13 +8357,13 @@
         <v>33</v>
       </c>
       <c r="E189">
-        <v>17979207.672</v>
+        <v>17979207.671999998</v>
       </c>
       <c r="F189">
-        <v>1.319466472673731</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6">
+        <v>1.3194664726737311</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2021</v>
       </c>
@@ -8352,10 +8380,10 @@
         <v>11913513.342</v>
       </c>
       <c r="F190">
-        <v>0.8743144699864042</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6">
+        <v>0.87431446998640416</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2021</v>
       </c>
@@ -8369,13 +8397,13 @@
         <v>35</v>
       </c>
       <c r="E191">
-        <v>26879261.672</v>
+        <v>26879261.671999998</v>
       </c>
       <c r="F191">
-        <v>1.972627783907387</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6">
+        <v>1.9726277839073869</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2021</v>
       </c>
@@ -8389,13 +8417,13 @@
         <v>36</v>
       </c>
       <c r="E192">
-        <v>39007574.477</v>
+        <v>39007574.476999998</v>
       </c>
       <c r="F192">
         <v>2.862706057001656</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2021</v>
       </c>
@@ -8409,13 +8437,13 @@
         <v>37</v>
       </c>
       <c r="E193">
-        <v>252699221.543</v>
+        <v>252699221.54300001</v>
       </c>
       <c r="F193">
-        <v>18.54520825275331</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6">
+        <v>18.545208252753309</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2021</v>
       </c>
@@ -8429,13 +8457,13 @@
         <v>38</v>
       </c>
       <c r="E194">
-        <v>220936656.974</v>
+        <v>220936656.97400001</v>
       </c>
       <c r="F194">
-        <v>16.21420235975179</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6">
+        <v>16.214202359751791</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2021</v>
       </c>
@@ -8449,13 +8477,13 @@
         <v>39</v>
       </c>
       <c r="E195">
-        <v>87984448.949</v>
+        <v>87984448.949000001</v>
       </c>
       <c r="F195">
-        <v>6.45704374868956</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6">
+        <v>6.4570437486895598</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2021</v>
       </c>
@@ -8469,13 +8497,13 @@
         <v>40</v>
       </c>
       <c r="E196">
-        <v>146496765.907</v>
+        <v>146496765.90700001</v>
       </c>
       <c r="F196">
         <v>10.75117293797387</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2021</v>
       </c>
@@ -8495,7 +8523,7 @@
         <v>0.9275885668777637</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2021</v>
       </c>
@@ -8509,13 +8537,13 @@
         <v>42</v>
       </c>
       <c r="E198">
-        <v>3782939.876</v>
+        <v>3782939.8760000002</v>
       </c>
       <c r="F198">
         <v>0.2776241548339195</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2021</v>
       </c>
@@ -8532,10 +8560,10 @@
         <v>10571763.953</v>
       </c>
       <c r="F199">
-        <v>0.7758455404421343</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6">
+        <v>0.77584554044213427</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2021</v>
       </c>
@@ -8549,13 +8577,13 @@
         <v>44</v>
       </c>
       <c r="E200">
-        <v>305643990.188</v>
+        <v>305643990.18800002</v>
       </c>
       <c r="F200">
-        <v>22.43074361142986</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6">
+        <v>22.430743611429861</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2021</v>
       </c>
@@ -8569,10 +8597,10 @@
         <v>45</v>
       </c>
       <c r="E201">
-        <v>23218039.42</v>
+        <v>23218039.420000002</v>
       </c>
       <c r="F201">
-        <v>1.703936298795706</v>
+        <v>1.7039362987957061</v>
       </c>
     </row>
   </sheetData>
